--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fgf8-Fgfr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fgf8-Fgfr3.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.4582203333333334</v>
+        <v>0.7103813333333333</v>
       </c>
       <c r="H2">
-        <v>1.374661</v>
+        <v>2.131144</v>
       </c>
       <c r="I2">
-        <v>0.6685245695950076</v>
+        <v>0.7576743564291667</v>
       </c>
       <c r="J2">
-        <v>0.6685245695950076</v>
+        <v>0.7576743564291667</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>2.619953333333334</v>
+        <v>5.751166666666666</v>
       </c>
       <c r="N2">
-        <v>7.85986</v>
+        <v>17.2535</v>
       </c>
       <c r="O2">
-        <v>0.6100029538328192</v>
+        <v>0.7405222614421495</v>
       </c>
       <c r="P2">
-        <v>0.6100029538328192</v>
+        <v>0.7405222614421495</v>
       </c>
       <c r="Q2">
-        <v>1.200515889717778</v>
+        <v>4.085521444888888</v>
       </c>
       <c r="R2">
-        <v>10.80464300746</v>
+        <v>36.769693004</v>
       </c>
       <c r="S2">
-        <v>0.4078019621627688</v>
+        <v>0.5610747278596517</v>
       </c>
       <c r="T2">
-        <v>0.4078019621627688</v>
+        <v>0.5610747278596517</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.4582203333333334</v>
+        <v>0.7103813333333333</v>
       </c>
       <c r="H3">
-        <v>1.374661</v>
+        <v>2.131144</v>
       </c>
       <c r="I3">
-        <v>0.6685245695950076</v>
+        <v>0.7576743564291667</v>
       </c>
       <c r="J3">
-        <v>0.6685245695950076</v>
+        <v>0.7576743564291667</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>1.709545</v>
       </c>
       <c r="O3">
-        <v>0.1326776176306101</v>
+        <v>0.07337387367415998</v>
       </c>
       <c r="P3">
-        <v>0.1326776176306101</v>
+        <v>0.07337387367416</v>
       </c>
       <c r="Q3">
-        <v>0.2611160932494445</v>
+        <v>0.4048096188311111</v>
       </c>
       <c r="R3">
-        <v>2.350044839245</v>
+        <v>3.643286569479999</v>
       </c>
       <c r="S3">
-        <v>0.08869824722139459</v>
+        <v>0.05559350251478414</v>
       </c>
       <c r="T3">
-        <v>0.08869824722139459</v>
+        <v>0.05559350251478416</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.4582203333333334</v>
+        <v>0.7103813333333333</v>
       </c>
       <c r="H4">
-        <v>1.374661</v>
+        <v>2.131144</v>
       </c>
       <c r="I4">
-        <v>0.6685245695950076</v>
+        <v>0.7576743564291667</v>
       </c>
       <c r="J4">
-        <v>0.6685245695950076</v>
+        <v>0.7576743564291667</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.105183</v>
+        <v>1.445350666666667</v>
       </c>
       <c r="N4">
-        <v>3.315549</v>
+        <v>4.336052</v>
       </c>
       <c r="O4">
-        <v>0.2573194285365706</v>
+        <v>0.1861038648836906</v>
       </c>
       <c r="P4">
-        <v>0.2573194285365706</v>
+        <v>0.1861038648836906</v>
       </c>
       <c r="Q4">
-        <v>0.5064173226543334</v>
+        <v>1.026750133720889</v>
       </c>
       <c r="R4">
-        <v>4.557755903889</v>
+        <v>9.240751203488001</v>
       </c>
       <c r="S4">
-        <v>0.1720243602108442</v>
+        <v>0.1410061260547309</v>
       </c>
       <c r="T4">
-        <v>0.1720243602108442</v>
+        <v>0.1410061260547309</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>0.6816</v>
       </c>
       <c r="I5">
-        <v>0.3314754304049923</v>
+        <v>0.2423256435708333</v>
       </c>
       <c r="J5">
-        <v>0.3314754304049923</v>
+        <v>0.2423256435708333</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>2.619953333333334</v>
+        <v>5.751166666666666</v>
       </c>
       <c r="N5">
-        <v>7.85986</v>
+        <v>17.2535</v>
       </c>
       <c r="O5">
-        <v>0.6100029538328192</v>
+        <v>0.7405222614421495</v>
       </c>
       <c r="P5">
-        <v>0.6100029538328192</v>
+        <v>0.7405222614421495</v>
       </c>
       <c r="Q5">
-        <v>0.5952533973333334</v>
+        <v>1.306665066666667</v>
       </c>
       <c r="R5">
-        <v>5.357280576</v>
+        <v>11.7599856</v>
       </c>
       <c r="S5">
-        <v>0.2022009916700504</v>
+        <v>0.1794475335824978</v>
       </c>
       <c r="T5">
-        <v>0.2022009916700504</v>
+        <v>0.1794475335824978</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.6816</v>
       </c>
       <c r="I6">
-        <v>0.3314754304049923</v>
+        <v>0.2423256435708333</v>
       </c>
       <c r="J6">
-        <v>0.3314754304049923</v>
+        <v>0.2423256435708333</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>1.709545</v>
       </c>
       <c r="O6">
-        <v>0.1326776176306101</v>
+        <v>0.07337387367415998</v>
       </c>
       <c r="P6">
-        <v>0.1326776176306101</v>
+        <v>0.07337387367416</v>
       </c>
       <c r="Q6">
         <v>0.1294695413333333</v>
@@ -818,10 +818,10 @@
         <v>1.165225872</v>
       </c>
       <c r="S6">
-        <v>0.04397937040921546</v>
+        <v>0.01778037115937584</v>
       </c>
       <c r="T6">
-        <v>0.04397937040921547</v>
+        <v>0.01778037115937585</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.6816</v>
       </c>
       <c r="I7">
-        <v>0.3314754304049923</v>
+        <v>0.2423256435708333</v>
       </c>
       <c r="J7">
-        <v>0.3314754304049923</v>
+        <v>0.2423256435708333</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.105183</v>
+        <v>1.445350666666667</v>
       </c>
       <c r="N7">
-        <v>3.315549</v>
+        <v>4.336052</v>
       </c>
       <c r="O7">
-        <v>0.2573194285365706</v>
+        <v>0.1861038648836906</v>
       </c>
       <c r="P7">
-        <v>0.2573194285365706</v>
+        <v>0.1861038648836906</v>
       </c>
       <c r="Q7">
-        <v>0.2510975776</v>
+        <v>0.3283836714666667</v>
       </c>
       <c r="R7">
-        <v>2.2598781984</v>
+        <v>2.9554530432</v>
       </c>
       <c r="S7">
-        <v>0.08529506832572641</v>
+        <v>0.04509773882895973</v>
       </c>
       <c r="T7">
-        <v>0.08529506832572642</v>
+        <v>0.04509773882895973</v>
       </c>
     </row>
   </sheetData>
